--- a/data/trans_orig/MCS12_SP_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA3DE105-790D-4B6D-9560-0821BAF19F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B35A6172-844A-4DDE-86F1-9449BB33DD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{49170997-E17B-4A42-9022-C7D50A857A82}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D3ACFD54-F0DB-418C-BADB-80BDF3872B86}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+  <si>
+    <t>Población por debajo de la mediana (53.5790) de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,775 +137,799 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana (53.5790) de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
   </si>
   <si>
     <t>40,69%</t>
   </si>
   <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana (53.5790) de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
   </si>
   <si>
     <t>56,05%</t>
   </si>
   <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana (53.5790) de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
   </si>
   <si>
     <t>41,88%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
   </si>
   <si>
     <t>58,12%</t>
   </si>
   <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450920E-95C2-4710-B7AD-676CF5F6C8CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AEA514-4C2D-49C5-9658-A39595048901}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1435,10 +1459,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="D4" s="7">
-        <v>533186</v>
+        <v>541705</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1450,10 +1474,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="I4" s="7">
-        <v>730290</v>
+        <v>737011</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1465,10 +1489,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1245</v>
+        <v>1261</v>
       </c>
       <c r="N4" s="7">
-        <v>1263476</v>
+        <v>1278715</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1486,10 +1510,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="D5" s="7">
-        <v>498537</v>
+        <v>490018</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1501,10 +1525,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="I5" s="7">
-        <v>584823</v>
+        <v>578102</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1516,10 +1540,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1084</v>
+        <v>1068</v>
       </c>
       <c r="N5" s="7">
-        <v>1083360</v>
+        <v>1068120</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1570,7 +1594,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1590,10 +1614,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="D7" s="7">
-        <v>643792</v>
+        <v>658072</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1605,10 +1629,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>798</v>
+        <v>820</v>
       </c>
       <c r="I7" s="7">
-        <v>817086</v>
+        <v>840541</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1620,10 +1644,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>1422</v>
+        <v>1457</v>
       </c>
       <c r="N7" s="7">
-        <v>1460879</v>
+        <v>1498613</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1641,10 +1665,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="D8" s="7">
-        <v>1049620</v>
+        <v>1035341</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1656,10 +1680,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>756</v>
+        <v>734</v>
       </c>
       <c r="I8" s="7">
-        <v>770587</v>
+        <v>747132</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1671,10 +1695,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1781</v>
+        <v>1746</v>
       </c>
       <c r="N8" s="7">
-        <v>1820207</v>
+        <v>1782473</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1695,7 +1719,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1745,10 +1769,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D10" s="7">
-        <v>212459</v>
+        <v>216336</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1757,37 +1781,37 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="I10" s="7">
-        <v>249255</v>
+        <v>253347</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="N10" s="7">
-        <v>461715</v>
+        <v>469683</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,49 +1820,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D11" s="7">
-        <v>338949</v>
+        <v>335072</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I11" s="7">
-        <v>227157</v>
+        <v>223065</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="N11" s="7">
-        <v>566105</v>
+        <v>558137</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,49 +1924,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1356</v>
+        <v>1382</v>
       </c>
       <c r="D13" s="7">
-        <v>1389438</v>
+        <v>1416113</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>1749</v>
+        <v>1782</v>
       </c>
       <c r="I13" s="7">
-        <v>1796632</v>
+        <v>1830898</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>3105</v>
+        <v>3164</v>
       </c>
       <c r="N13" s="7">
-        <v>3186069</v>
+        <v>3247011</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,49 +1975,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1858</v>
+        <v>1832</v>
       </c>
       <c r="D14" s="7">
-        <v>1887106</v>
+        <v>1860430</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>1548</v>
+        <v>1515</v>
       </c>
       <c r="I14" s="7">
-        <v>1582566</v>
+        <v>1548299</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>3406</v>
+        <v>3347</v>
       </c>
       <c r="N14" s="7">
-        <v>3469671</v>
+        <v>3408730</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,7 +2029,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2020,7 +2044,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2035,7 +2059,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2068,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24B6474-BEE5-44CD-87C3-41E48EDBE1C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D565BB77-1219-4F91-A394-277C911B09B2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2186,25 +2210,25 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="D4" s="7">
-        <v>504312</v>
+        <v>531328</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>88</v>
       </c>
       <c r="H4" s="7">
-        <v>790</v>
+        <v>840</v>
       </c>
       <c r="I4" s="7">
-        <v>844471</v>
+        <v>898961</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>89</v>
@@ -2216,10 +2240,10 @@
         <v>91</v>
       </c>
       <c r="M4" s="7">
-        <v>1261</v>
+        <v>1337</v>
       </c>
       <c r="N4" s="7">
-        <v>1348784</v>
+        <v>1430289</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>92</v>
@@ -2237,10 +2261,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="D5" s="7">
-        <v>470331</v>
+        <v>443315</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>95</v>
@@ -2249,13 +2273,13 @@
         <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H5" s="7">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="I5" s="7">
-        <v>493325</v>
+        <v>438836</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>97</v>
@@ -2267,10 +2291,10 @@
         <v>99</v>
       </c>
       <c r="M5" s="7">
-        <v>894</v>
+        <v>818</v>
       </c>
       <c r="N5" s="7">
-        <v>963656</v>
+        <v>882151</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>100</v>
@@ -2306,7 +2330,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2341,10 +2365,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>823</v>
+        <v>877</v>
       </c>
       <c r="D7" s="7">
-        <v>869917</v>
+        <v>926451</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>103</v>
@@ -2356,10 +2380,10 @@
         <v>105</v>
       </c>
       <c r="H7" s="7">
-        <v>911</v>
+        <v>972</v>
       </c>
       <c r="I7" s="7">
-        <v>983622</v>
+        <v>1049070</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>106</v>
@@ -2371,10 +2395,10 @@
         <v>108</v>
       </c>
       <c r="M7" s="7">
-        <v>1734</v>
+        <v>1849</v>
       </c>
       <c r="N7" s="7">
-        <v>1853539</v>
+        <v>1975520</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>109</v>
@@ -2392,10 +2416,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1033</v>
+        <v>979</v>
       </c>
       <c r="D8" s="7">
-        <v>1094040</v>
+        <v>1037506</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>112</v>
@@ -2407,10 +2431,10 @@
         <v>114</v>
       </c>
       <c r="H8" s="7">
-        <v>724</v>
+        <v>663</v>
       </c>
       <c r="I8" s="7">
-        <v>774181</v>
+        <v>708733</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>115</v>
@@ -2422,10 +2446,10 @@
         <v>117</v>
       </c>
       <c r="M8" s="7">
-        <v>1757</v>
+        <v>1642</v>
       </c>
       <c r="N8" s="7">
-        <v>1868221</v>
+        <v>1746240</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>118</v>
@@ -2496,49 +2520,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="D10" s="7">
-        <v>200847</v>
+        <v>216468</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="I10" s="7">
-        <v>224068</v>
+        <v>249215</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="N10" s="7">
-        <v>424915</v>
+        <v>465683</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,49 +2571,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D11" s="7">
-        <v>280334</v>
+        <v>264713</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="I11" s="7">
-        <v>234563</v>
+        <v>209416</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
-        <v>475</v>
+        <v>438</v>
       </c>
       <c r="N11" s="7">
-        <v>514897</v>
+        <v>474130</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,7 +2655,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2651,49 +2675,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1469</v>
+        <v>1564</v>
       </c>
       <c r="D13" s="7">
-        <v>1575076</v>
+        <v>1674247</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
-        <v>1901</v>
+        <v>2034</v>
       </c>
       <c r="I13" s="7">
-        <v>2052162</v>
+        <v>2197245</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
-        <v>3370</v>
+        <v>3598</v>
       </c>
       <c r="N13" s="7">
-        <v>3627238</v>
+        <v>3871492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,49 +2726,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1733</v>
+        <v>1638</v>
       </c>
       <c r="D14" s="7">
-        <v>1844706</v>
+        <v>1745535</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
-        <v>1393</v>
+        <v>1260</v>
       </c>
       <c r="I14" s="7">
-        <v>1502068</v>
+        <v>1356985</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
-        <v>3126</v>
+        <v>2898</v>
       </c>
       <c r="N14" s="7">
-        <v>3346774</v>
+        <v>3102520</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC30AB6-531D-406D-8B78-AB290D488B76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE19D14-BE2F-4CB4-8595-E6297D5B6FEF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2836,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2937,49 +2961,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D4" s="7">
-        <v>415782</v>
+        <v>425256</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="I4" s="7">
-        <v>606496</v>
+        <v>613793</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
-        <v>969</v>
+        <v>986</v>
       </c>
       <c r="N4" s="7">
-        <v>1022278</v>
+        <v>1039049</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,49 +3012,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D5" s="7">
-        <v>338565</v>
+        <v>329091</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I5" s="7">
-        <v>388164</v>
+        <v>380867</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="N5" s="7">
-        <v>726729</v>
+        <v>709958</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,49 +3116,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>860</v>
+        <v>898</v>
       </c>
       <c r="D7" s="7">
-        <v>913503</v>
+        <v>955070</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
-        <v>961</v>
+        <v>1001</v>
       </c>
       <c r="I7" s="7">
-        <v>1004469</v>
+        <v>1045553</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
-        <v>1821</v>
+        <v>1899</v>
       </c>
       <c r="N7" s="7">
-        <v>1917972</v>
+        <v>2000623</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,49 +3167,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1092</v>
+        <v>1054</v>
       </c>
       <c r="D8" s="7">
-        <v>1162882</v>
+        <v>1121315</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
-        <v>947</v>
+        <v>907</v>
       </c>
       <c r="I8" s="7">
-        <v>983831</v>
+        <v>942747</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
-        <v>2039</v>
+        <v>1961</v>
       </c>
       <c r="N8" s="7">
-        <v>2146713</v>
+        <v>2064062</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,49 +3271,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D10" s="7">
-        <v>229333</v>
+        <v>244585</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="I10" s="7">
-        <v>263750</v>
+        <v>278082</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="N10" s="7">
-        <v>493083</v>
+        <v>522667</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,49 +3322,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="D11" s="7">
-        <v>317553</v>
+        <v>302301</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="I11" s="7">
-        <v>285390</v>
+        <v>271058</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
-        <v>562</v>
+        <v>536</v>
       </c>
       <c r="N11" s="7">
-        <v>602943</v>
+        <v>573360</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,7 +3406,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3402,49 +3426,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1492</v>
+        <v>1553</v>
       </c>
       <c r="D13" s="7">
-        <v>1558618</v>
+        <v>1624911</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
-        <v>1763</v>
+        <v>1823</v>
       </c>
       <c r="I13" s="7">
-        <v>1874715</v>
+        <v>1937428</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="M13" s="7">
-        <v>3255</v>
+        <v>3376</v>
       </c>
       <c r="N13" s="7">
-        <v>3433333</v>
+        <v>3562339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,49 +3477,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1723</v>
+        <v>1662</v>
       </c>
       <c r="D14" s="7">
-        <v>1819000</v>
+        <v>1752707</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
-        <v>1563</v>
+        <v>1503</v>
       </c>
       <c r="I14" s="7">
-        <v>1657385</v>
+        <v>1594672</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
-        <v>3286</v>
+        <v>3165</v>
       </c>
       <c r="N14" s="7">
-        <v>3476385</v>
+        <v>3347379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E4CC9A-9135-4134-8C4A-B8EA9F4B3FBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBFD1B2-3BFB-4AA0-B5FC-6F2FE2D0E24E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3688,49 +3712,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="D4" s="7">
-        <v>269570</v>
+        <v>264622</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
-        <v>848</v>
+        <v>873</v>
       </c>
       <c r="I4" s="7">
-        <v>501221</v>
+        <v>461719</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
-        <v>1189</v>
+        <v>1226</v>
       </c>
       <c r="N4" s="7">
-        <v>770791</v>
+        <v>726340</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,49 +3763,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D5" s="7">
-        <v>267317</v>
+        <v>245774</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="I5" s="7">
-        <v>323822</v>
+        <v>283837</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
-        <v>903</v>
+        <v>866</v>
       </c>
       <c r="N5" s="7">
-        <v>591139</v>
+        <v>529611</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,7 +3817,7 @@
         <v>685</v>
       </c>
       <c r="D6" s="7">
-        <v>536887</v>
+        <v>510396</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3808,7 +3832,7 @@
         <v>1407</v>
       </c>
       <c r="I6" s="7">
-        <v>825043</v>
+        <v>745556</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3823,7 +3847,7 @@
         <v>2092</v>
       </c>
       <c r="N6" s="7">
-        <v>1361930</v>
+        <v>1255951</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3843,49 +3867,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>804</v>
+        <v>864</v>
       </c>
       <c r="D7" s="7">
-        <v>784275</v>
+        <v>798879</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
-        <v>1386</v>
+        <v>1456</v>
       </c>
       <c r="I7" s="7">
-        <v>1067134</v>
+        <v>1182106</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
-        <v>2190</v>
+        <v>2320</v>
       </c>
       <c r="N7" s="7">
-        <v>1851409</v>
+        <v>1980985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,49 +3918,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1179</v>
+        <v>1119</v>
       </c>
       <c r="D8" s="7">
-        <v>1368457</v>
+        <v>1482667</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
-        <v>1525</v>
+        <v>1455</v>
       </c>
       <c r="I8" s="7">
-        <v>1176136</v>
+        <v>1049990</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
-        <v>2704</v>
+        <v>2574</v>
       </c>
       <c r="N8" s="7">
-        <v>2544593</v>
+        <v>2532657</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,7 +3972,7 @@
         <v>1983</v>
       </c>
       <c r="D9" s="7">
-        <v>2152732</v>
+        <v>2281546</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3963,7 +3987,7 @@
         <v>2911</v>
       </c>
       <c r="I9" s="7">
-        <v>2243270</v>
+        <v>2232096</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3978,7 +4002,7 @@
         <v>4894</v>
       </c>
       <c r="N9" s="7">
-        <v>4396002</v>
+        <v>4513642</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3998,49 +4022,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D10" s="7">
-        <v>264513</v>
+        <v>264832</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="I10" s="7">
-        <v>327957</v>
+        <v>314279</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
-        <v>764</v>
+        <v>799</v>
       </c>
       <c r="N10" s="7">
-        <v>592470</v>
+        <v>579112</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,49 +4073,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="D11" s="7">
-        <v>406205</v>
+        <v>379629</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="I11" s="7">
-        <v>382691</v>
+        <v>343310</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
-        <v>916</v>
+        <v>881</v>
       </c>
       <c r="N11" s="7">
-        <v>788896</v>
+        <v>722938</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,7 +4127,7 @@
         <v>679</v>
       </c>
       <c r="D12" s="7">
-        <v>670718</v>
+        <v>644461</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4118,7 +4142,7 @@
         <v>1001</v>
       </c>
       <c r="I12" s="7">
-        <v>710648</v>
+        <v>657589</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4133,7 +4157,7 @@
         <v>1680</v>
       </c>
       <c r="N12" s="7">
-        <v>1381366</v>
+        <v>1302050</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4153,49 +4177,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1431</v>
+        <v>1516</v>
       </c>
       <c r="D13" s="7">
-        <v>1318359</v>
+        <v>1328333</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
-        <v>2712</v>
+        <v>2829</v>
       </c>
       <c r="I13" s="7">
-        <v>1896311</v>
+        <v>1958104</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
-        <v>4143</v>
+        <v>4345</v>
       </c>
       <c r="N13" s="7">
-        <v>3214670</v>
+        <v>3286436</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,49 +4228,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1916</v>
+        <v>1831</v>
       </c>
       <c r="D14" s="7">
-        <v>2041979</v>
+        <v>2108070</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
-        <v>2607</v>
+        <v>2490</v>
       </c>
       <c r="I14" s="7">
-        <v>1882649</v>
+        <v>1677136</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
-        <v>4523</v>
+        <v>4321</v>
       </c>
       <c r="N14" s="7">
-        <v>3924628</v>
+        <v>3785207</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>206</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,7 +4282,7 @@
         <v>3347</v>
       </c>
       <c r="D15" s="7">
-        <v>3360338</v>
+        <v>3436403</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4273,7 +4297,7 @@
         <v>5319</v>
       </c>
       <c r="I15" s="7">
-        <v>3778960</v>
+        <v>3635240</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4288,7 +4312,7 @@
         <v>8666</v>
       </c>
       <c r="N15" s="7">
-        <v>7139298</v>
+        <v>7071643</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
